--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="13545" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="店铺数据" sheetId="2" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1234,7 +1234,7 @@
     <col min="11" max="11" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="6:6">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="F1" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>112</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D27" si="1">B17-C17</f>
+        <f t="shared" ref="D17:D31" si="1">B17-C17</f>
         <v>176</v>
       </c>
       <c r="E17">
@@ -2096,27 +2096,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:1">
+    <row r="28" customHeight="1" spans="1:10">
       <c r="A28" s="2">
         <v>45985</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:1">
+      <c r="B28">
+        <v>2047</v>
+      </c>
+      <c r="C28">
+        <v>1915</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="E28">
+        <v>52</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>352</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:10">
       <c r="A29" s="2">
         <v>45986</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:1">
+      <c r="B29">
+        <v>1902</v>
+      </c>
+      <c r="C29">
+        <v>1747</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="E29">
+        <v>46</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>320</v>
+      </c>
+      <c r="I29">
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:10">
       <c r="A30" s="2">
         <v>45987</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:1">
+      <c r="B30">
+        <v>2455</v>
+      </c>
+      <c r="C30">
+        <v>2257</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="E30">
+        <v>49</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>352</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:10">
       <c r="A31" s="2">
         <v>45988</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:1">
+      <c r="B31">
+        <v>2595</v>
+      </c>
+      <c r="C31">
+        <v>2352</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="E31">
+        <v>54</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>345</v>
+      </c>
+      <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="J31">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:10">
       <c r="A32" s="2">
         <v>45989</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="店铺数据" sheetId="2" r:id="rId1"/>
@@ -1219,11 +1219,11 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -2206,7 +2206,7 @@
         <v>2352</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f>B31-C31</f>
         <v>243</v>
       </c>
       <c r="E31">
@@ -2232,83 +2232,167 @@
       <c r="A32" s="2">
         <v>45989</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:1">
+      <c r="B32">
+        <v>1652</v>
+      </c>
+      <c r="C32">
+        <v>1369</v>
+      </c>
+      <c r="D32">
+        <f>B32-C32</f>
+        <v>283</v>
+      </c>
+      <c r="E32">
+        <v>61</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>334.26</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:10">
       <c r="A33" s="2">
         <v>45990</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:1">
+      <c r="B33">
+        <v>995</v>
+      </c>
+      <c r="C33">
+        <v>799</v>
+      </c>
+      <c r="D33">
+        <f>B33-C33</f>
+        <v>196</v>
+      </c>
+      <c r="E33">
+        <v>33</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>219.13</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:10">
       <c r="A34" s="2">
         <v>45991</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:1">
+      <c r="B34">
+        <v>443</v>
+      </c>
+      <c r="C34">
+        <v>188</v>
+      </c>
+      <c r="D34">
+        <f>B34-C34</f>
+        <v>255</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>146.38</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:10">
       <c r="A35" s="2">
         <v>45992</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:1">
+    <row r="36" customHeight="1" spans="1:10">
       <c r="A36" s="2">
         <v>45993</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:1">
+    <row r="37" customHeight="1" spans="1:10">
       <c r="A37" s="2">
         <v>45994</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:1">
+    <row r="38" customHeight="1" spans="1:10">
       <c r="A38" s="2">
         <v>45995</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:1">
+    <row r="39" customHeight="1" spans="1:10">
       <c r="A39" s="2">
         <v>45996</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:1">
+    <row r="40" customHeight="1" spans="1:10">
       <c r="A40" s="2">
         <v>45997</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:1">
+    <row r="41" customHeight="1" spans="1:10">
       <c r="A41" s="2">
         <v>45998</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:1">
+    <row r="42" customHeight="1" spans="1:10">
       <c r="A42" s="2">
         <v>45999</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:1">
+    <row r="43" customHeight="1" spans="1:10">
       <c r="A43" s="2">
         <v>46000</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:1">
+    <row r="44" customHeight="1" spans="1:10">
       <c r="A44" s="2">
         <v>46001</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:1">
+    <row r="45" customHeight="1" spans="1:10">
       <c r="A45" s="2">
         <v>46002</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:1">
+    <row r="46" customHeight="1" spans="1:10">
       <c r="A46" s="2">
         <v>46003</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:1">
+    <row r="47" customHeight="1" spans="1:10">
       <c r="A47" s="2">
         <v>46004</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:1">
+    <row r="48" customHeight="1" spans="1:10">
       <c r="A48" s="2">
         <v>46005</v>
       </c>
